--- a/dateien/Standartabweichung.xlsx
+++ b/dateien/Standartabweichung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mschu\Desktop\Coding\dateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F67A3D2-A31E-473B-85C2-FD51FBE64D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E13EAFE-EF31-4FDD-BB17-7A7379A4A847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2F6495B0-F2E9-4B58-A63A-3BD5EAD5CEC8}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,489 +444,295 @@
       </c>
     </row>
     <row r="4" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>3</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>2</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>3</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>2</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>3</v>
-      </c>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>3</v>
-      </c>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>3</v>
-      </c>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>2</v>
-      </c>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>2</v>
-      </c>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>2</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>1</v>
-      </c>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>2</v>
-      </c>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>1</v>
-      </c>
+      <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>3</v>
-      </c>
+      <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>1</v>
-      </c>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>2</v>
-      </c>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>1</v>
-      </c>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>2</v>
-      </c>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>3</v>
-      </c>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>2</v>
-      </c>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>1</v>
-      </c>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>2</v>
-      </c>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>3</v>
-      </c>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>2</v>
-      </c>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>1</v>
-      </c>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>2</v>
-      </c>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>3</v>
-      </c>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>1</v>
-      </c>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>2</v>
-      </c>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>3</v>
-      </c>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>3</v>
-      </c>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>2</v>
-      </c>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>1</v>
-      </c>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>2</v>
-      </c>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>2</v>
-      </c>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <v>1</v>
-      </c>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>2</v>
-      </c>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <v>1</v>
-      </c>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>3</v>
-      </c>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>1</v>
-      </c>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>2</v>
-      </c>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>1</v>
-      </c>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>2</v>
-      </c>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>3</v>
-      </c>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <v>2</v>
-      </c>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <v>1</v>
-      </c>
+      <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
-        <v>2</v>
-      </c>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <v>3</v>
-      </c>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>2</v>
-      </c>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <v>1</v>
-      </c>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>2</v>
-      </c>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>3</v>
-      </c>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
-        <v>1</v>
-      </c>
+      <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
-        <v>2</v>
-      </c>
+      <c r="A72" s="1"/>
     </row>
     <row r="73" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>3</v>
-      </c>
+      <c r="A73" s="1"/>
     </row>
     <row r="74" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <v>3</v>
-      </c>
+      <c r="A74" s="1"/>
     </row>
     <row r="75" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <v>2</v>
-      </c>
+      <c r="A75" s="1"/>
     </row>
     <row r="76" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
-        <v>1</v>
-      </c>
+      <c r="A76" s="1"/>
     </row>
     <row r="77" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>2</v>
-      </c>
+      <c r="A77" s="1"/>
     </row>
     <row r="78" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>2</v>
-      </c>
+      <c r="A78" s="1"/>
     </row>
     <row r="79" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
-        <v>1</v>
-      </c>
+      <c r="A79" s="1"/>
     </row>
     <row r="80" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
-        <v>2</v>
-      </c>
+      <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
-        <v>1</v>
-      </c>
+      <c r="A81" s="1"/>
     </row>
     <row r="82" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
-        <v>3</v>
-      </c>
+      <c r="A82" s="1"/>
     </row>
     <row r="83" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
-        <v>1</v>
-      </c>
+      <c r="A83" s="1"/>
     </row>
     <row r="84" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
-        <v>2</v>
-      </c>
+      <c r="A84" s="1"/>
     </row>
     <row r="85" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
-        <v>1</v>
-      </c>
+      <c r="A85" s="1"/>
     </row>
     <row r="86" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
-        <v>2</v>
-      </c>
+      <c r="A86" s="1"/>
     </row>
     <row r="87" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
-        <v>3</v>
-      </c>
+      <c r="A87" s="1"/>
     </row>
     <row r="88" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
-        <v>2</v>
-      </c>
+      <c r="A88" s="1"/>
     </row>
     <row r="89" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <v>1</v>
-      </c>
+      <c r="A89" s="1"/>
     </row>
     <row r="90" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
-        <v>2</v>
-      </c>
+      <c r="A90" s="1"/>
     </row>
     <row r="91" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
-        <v>3</v>
-      </c>
+      <c r="A91" s="1"/>
     </row>
     <row r="92" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <v>2</v>
-      </c>
+      <c r="A92" s="1"/>
     </row>
     <row r="93" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>1</v>
-      </c>
+      <c r="A93" s="1"/>
     </row>
     <row r="94" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>2</v>
-      </c>
+      <c r="A94" s="1"/>
     </row>
     <row r="95" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>3</v>
-      </c>
+      <c r="A95" s="1"/>
     </row>
     <row r="96" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
-        <v>2</v>
-      </c>
+      <c r="A96" s="1"/>
     </row>
     <row r="97" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
-        <v>3</v>
-      </c>
+      <c r="A97" s="1"/>
     </row>
     <row r="98" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
-        <v>2</v>
-      </c>
+      <c r="A98" s="1"/>
     </row>
     <row r="99" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
-        <v>1</v>
-      </c>
+      <c r="A99" s="1"/>
     </row>
     <row r="100" spans="1:1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="2">
-        <v>2</v>
-      </c>
+      <c r="A100" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
